--- a/EsamePol.xlsx
+++ b/EsamePol.xlsx
@@ -978,7 +978,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
